--- a/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
+++ b/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
+++ b/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
+++ b/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
+++ b/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
+++ b/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
+++ b/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
+++ b/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
+++ b/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
+++ b/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
+++ b/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
+++ b/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
+++ b/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
+++ b/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
+++ b/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
+++ b/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
+++ b/StructureDefinition-onconova-ext-cancer-patient-end-of-records.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
